--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/HOR_CAT_DIAS_SEMANA.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/HOR_CAT_DIAS_SEMANA.xlsx
@@ -18,54 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>IDDIA</t>
   </si>
   <si>
     <t>DIASEMANA</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Lunes</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Martes</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Miercoles</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Jueves</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Viernes</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Sabado</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Domingo</t>
   </si>
 </sst>
 </file>
@@ -435,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,62 +407,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/HOR_CAT_DIAS_SEMANA.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/HOR_CAT_DIAS_SEMANA.xlsx
@@ -18,12 +18,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>IDDIA</t>
   </si>
   <si>
     <t>DIASEMANA</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Miercoles</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Sabado</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Domingo</t>
   </si>
 </sst>
 </file>
@@ -393,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,6 +449,62 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
